--- a/app/src/test/resources/dataset.xlsx
+++ b/app/src/test/resources/dataset.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>Username</t>
   </si>
